--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1439.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1439.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.875124919570948</v>
+        <v>1.424537301063538</v>
       </c>
       <c r="B1">
-        <v>2.243247550051139</v>
+        <v>3.460838317871094</v>
       </c>
       <c r="C1">
-        <v>2.990246014324458</v>
+        <v>5.436500072479248</v>
       </c>
       <c r="D1">
-        <v>1.882172754078789</v>
+        <v>1.742715001106262</v>
       </c>
       <c r="E1">
-        <v>0.6341025516749944</v>
+        <v>0.9777151942253113</v>
       </c>
     </row>
   </sheetData>
